--- a/comp-rpg/checklist.xlsx
+++ b/comp-rpg/checklist.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/comp-rpg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D8B9081-CD89-9041-A65B-6CF8C20CD59E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B211ABC-451E-884C-81AB-310E576AB609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{830C81DA-F148-DE4C-A81A-845D4CA90D15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>year</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>Vol. 11</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>periodical</t>
   </si>
 </sst>
 </file>
@@ -519,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F741CF-7BCF-FE4A-A486-44266CFF1AA8}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B25"/>
+      <selection activeCell="F2" sqref="F2:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,7 +537,7 @@
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,8 +553,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>LEFT(E2, 4)</f>
         <v>1991</v>
@@ -562,8 +571,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A26" si="0">LEFT(E3, 4)</f>
         <v>1992</v>
@@ -577,8 +589,11 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -592,8 +607,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -607,8 +625,11 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -622,8 +643,11 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -637,8 +661,11 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -652,8 +679,11 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -667,8 +697,11 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -682,8 +715,11 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -697,8 +733,11 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -712,8 +751,11 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -728,8 +770,11 @@
       <c r="E13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -744,8 +789,11 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -760,8 +808,11 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -776,8 +827,11 @@
       <c r="E16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -792,8 +846,11 @@
       <c r="E17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -808,8 +865,11 @@
       <c r="E18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -824,8 +884,11 @@
       <c r="E19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -840,8 +903,11 @@
       <c r="E20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -856,8 +922,11 @@
       <c r="E21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>1996</v>
@@ -872,8 +941,11 @@
       <c r="E22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>1996</v>
@@ -888,8 +960,11 @@
       <c r="E23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>1996</v>
@@ -904,8 +979,11 @@
       <c r="E24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>1996</v>
@@ -920,8 +998,11 @@
       <c r="E25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>1996</v>
@@ -935,6 +1016,9 @@
       </c>
       <c r="E26" t="s">
         <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
